--- a/datamining/final_data/sum1963_nltk.xlsx
+++ b/datamining/final_data/sum1963_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FN2"/>
+  <dimension ref="A1:EM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,825 +457,690 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>of</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>communitys</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>level</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>communitys</t>
+          <t>one</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>affective</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>attributes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>best</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>bring</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>dimensions</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>affective</t>
+          <t>processes</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>attributes</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>gifted-child</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>bring</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>participate</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>dimensions</t>
+          <t>program</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>out</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>processes</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>academic-achievement</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>comparison</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>curriculums</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>enrolled</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>gifted-child</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>separate</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>participate</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>book</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>cradles</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>eminence</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>review</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>academic-achievement</t>
+          <t>become</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>comparison</t>
+          <t>kind</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>curriculums</t>
+          <t>person</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>enrolled</t>
+          <t>want</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>training</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>separate</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>ethnic-origin</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>study</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>cradles</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>eminence</t>
+          <t>preschool</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>years</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>purposeful</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>preschool-children</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>kind</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>new</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>nursery-school</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>task</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>observations</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>ethnic-origin</t>
+          <t>encouraging</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>reluctantly</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>gallagher</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>jj</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>preschool</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>cj</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>purposeful</t>
+          <t>college</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>preschool-children</t>
+          <t>high-school</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>hunter</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>woolcock</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>curiosity</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>nursery-school</t>
+          <t>encourage</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>mothering</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>observations</t>
+          <t>achievements</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>some</t>
+          <t>children</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>encouraging</t>
+          <t>competitions</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>reluctantly</t>
+          <t>consecutive</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>gallagher</t>
+          <t>earlier</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>jj</t>
+          <t>endeavors</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>extension</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>cj</t>
+          <t>fair</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>high-school</t>
+          <t>often</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>hunter</t>
+          <t>science</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>woolcock</t>
+          <t>sisters</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>curiosity</t>
+          <t>three</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>encourage</t>
+          <t>win</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>phenomena</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>mothering</t>
+          <t>psychic</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>card</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>achievements</t>
+          <t>choices</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>are</t>
+          <t>junior-high</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>pupils</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>competitions</t>
+          <t>report</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>consecutive</t>
+          <t>school</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>earlier</t>
+          <t>creative-thinking</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>endeavors</t>
+          <t>teacher-effectiveness</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>extension</t>
+          <t>preschool-child</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>fair</t>
+          <t>read</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>taught</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>cause</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>deeper</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>sisters</t>
+          <t>experienced</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>greater</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>loss</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>win</t>
+          <t>may</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>phenomena</t>
+          <t>perception</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>psychic</t>
+          <t>suffering</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>card</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>choices</t>
+          <t>child</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>junior-high</t>
+          <t>parental</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>pupils</t>
+          <t>responsibility</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>creatively</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>helping</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>creative-thinking</t>
+          <t>music</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>teacher-effectiveness</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>be</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>preschool-child</t>
+          <t>discovering</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>read</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>special</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>taught</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>cause</t>
+          <t>archbishop</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>deeper</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>experienced</t>
+          <t>discussing</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>greater</t>
+          <t>exciting</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>musically</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>provides</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>suffering</t>
+          <t>public-school</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>unusual</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>interlochen-arts-academy</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>parental</t>
+          <t>less</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>responsibility</t>
+          <t>national-music-camp</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>creatively</t>
+          <t>time</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>helping</t>
+          <t>genius</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>inspiration</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>perspiration</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>7th</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>discovering</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>musical</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>archbishop</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>boys</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>discussing</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>exciting</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>interview</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>musically</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>opportunities</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>provides</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>public-school</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>unusual</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>interlochen-arts-academy</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>learn</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>less</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>national-music-camp</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>both</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>genius</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>inspiration</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>perspiration</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>7th</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>grade</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>preparatory</t>
         </is>
@@ -1289,508 +1154,427 @@
         <v>1963</v>
       </c>
       <c r="C2" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="E2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR2" t="n">
         <v>0.52</v>
       </c>
-      <c r="F2" t="n">
+      <c r="AS2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW2" t="n">
         <v>0.71</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="AX2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="DE2" t="n">
         <v>0.52</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="DF2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="DG2" t="n">
         <v>0.52</v>
       </c>
-      <c r="AD2" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="BF2" t="n">
+      <c r="DH2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="EJ2" t="n">
         <v>0.43</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="EK2" t="n">
         <v>0.43</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="EL2" t="n">
         <v>0.43</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="EM2" t="n">
         <v>0.43</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.42</v>
       </c>
     </row>
   </sheetData>
